--- a/VersionRecords/Version 3.1.0 20160331/V3.1.0( release backlog).xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/V3.1.0( release backlog).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="348">
   <si>
     <t>No</t>
   </si>
@@ -367,9 +367,6 @@
     <t>通过</t>
   </si>
   <si>
-    <t>可</t>
-  </si>
-  <si>
     <t>连接池可靠性优化</t>
   </si>
   <si>
@@ -1161,10 +1158,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>异常场景的保护提示信息，极少出现，测试场景无法复现，线上观察</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>通过</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1459,6 +1452,10 @@
   <si>
     <t>通过</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常场景的保护提示信息，极少出现，测试场景无法复现，线上观察</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1899,7 +1896,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2028,9 +2025,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2463,8 +2457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2562,10 +2556,10 @@
         <v>27</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="F2" s="19">
         <v>42457</v>
@@ -2581,13 +2575,13 @@
         <v>35</v>
       </c>
       <c r="K2" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="L2" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="20" t="s">
         <v>187</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>188</v>
       </c>
       <c r="N2" s="21">
         <v>42467</v>
@@ -2597,7 +2591,9 @@
       </c>
       <c r="P2" s="20"/>
       <c r="Q2" s="17"/>
-      <c r="R2" s="18"/>
+      <c r="R2" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19" ht="27" x14ac:dyDescent="0.15">
@@ -2611,10 +2607,10 @@
         <v>27</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F3" s="19">
         <v>42457</v>
@@ -2630,10 +2626,10 @@
         <v>36</v>
       </c>
       <c r="K3" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="L3" s="18" t="s">
         <v>190</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>191</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>38</v>
@@ -2647,7 +2643,7 @@
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
       <c r="R3" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S3" s="4"/>
     </row>
@@ -2656,22 +2652,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="F4" s="19">
         <v>42457</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H4" s="19">
         <v>42457</v>
@@ -2681,7 +2677,7 @@
         <v>37</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L4" s="18" t="s">
         <v>28</v>
@@ -2698,7 +2694,7 @@
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S4" s="4"/>
     </row>
@@ -2707,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>27</v>
@@ -2716,13 +2712,13 @@
         <v>33</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F5" s="19">
         <v>42457</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H5" s="19">
         <v>42457</v>
@@ -2732,24 +2728,24 @@
         <v>36</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L5" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="M5" s="20" t="s">
         <v>200</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>201</v>
       </c>
       <c r="N5" s="21">
         <v>42460</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S5" s="4"/>
     </row>
@@ -2761,13 +2757,13 @@
         <v>34</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F6" s="19">
         <v>42457</v>
@@ -2780,27 +2776,27 @@
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K6" s="18" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="M6" s="20" t="s">
         <v>206</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>207</v>
       </c>
       <c r="N6" s="21">
         <v>42460</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S6" s="4"/>
     </row>
@@ -2809,49 +2805,49 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>209</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F7" s="19">
         <v>42457</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H7" s="19">
         <v>42457</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="L7" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="K7" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>211</v>
-      </c>
       <c r="M7" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N7" s="21">
         <v>42460</v>
       </c>
       <c r="O7" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S7" s="4"/>
     </row>
@@ -2860,49 +2856,49 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="F8" s="19">
         <v>42457</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H8" s="19">
         <v>42457</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N8" s="21">
         <v>42460</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S8" s="4"/>
     </row>
@@ -2911,35 +2907,35 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>217</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F9" s="19">
         <v>42457</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H9" s="19">
         <v>42457</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K9" s="18" t="s">
         <v>31</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M9" s="20" t="s">
         <v>38</v>
@@ -2948,12 +2944,12 @@
         <v>42460</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S9" s="4"/>
     </row>
@@ -2962,49 +2958,49 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F10" s="19">
         <v>42457</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H10" s="19">
         <v>42457</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="K10" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="L10" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="M10" s="20" t="s">
         <v>221</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>222</v>
       </c>
       <c r="N10" s="21">
         <v>42460</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S10" s="4"/>
     </row>
@@ -3013,16 +3009,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F11" s="19">
         <v>42457</v>
@@ -3035,27 +3031,27 @@
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N11" s="21">
         <v>42460</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
       <c r="R11" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S11" s="4"/>
     </row>
@@ -3064,16 +3060,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>227</v>
-      </c>
       <c r="D12" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F12" s="19">
         <v>42457</v>
@@ -3086,27 +3082,27 @@
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K12" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="M12" s="20" t="s">
         <v>221</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>222</v>
       </c>
       <c r="N12" s="21">
         <v>42460</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S12" s="4"/>
     </row>
@@ -3115,16 +3111,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F13" s="19">
         <v>42457</v>
@@ -3137,13 +3133,13 @@
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M13" s="20" t="s">
         <v>38</v>
@@ -3152,12 +3148,12 @@
         <v>42460</v>
       </c>
       <c r="O13" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S13" s="4"/>
     </row>
@@ -3166,49 +3162,49 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F14" s="19">
         <v>42457</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H14" s="19">
         <v>42457</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N14" s="21">
         <v>42460</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S14" s="4"/>
     </row>
@@ -3217,49 +3213,49 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="F15" s="19">
         <v>42457</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H15" s="19">
         <v>42457</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N15" s="21">
         <v>42458</v>
       </c>
       <c r="O15" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S15" s="4"/>
     </row>
@@ -3268,49 +3264,49 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F16" s="19">
         <v>42457</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H16" s="19">
         <v>42457</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N16" s="21">
         <v>42458</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S16" s="4"/>
     </row>
@@ -3319,49 +3315,49 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="F17" s="19">
         <v>42457</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H17" s="19">
         <v>42457</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N17" s="21">
         <v>42458</v>
       </c>
       <c r="O17" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S17" s="4"/>
     </row>
@@ -3370,44 +3366,44 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>236</v>
-      </c>
       <c r="E18" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F18" s="19">
         <v>42457</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H18" s="19">
         <v>42457</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N18" s="21">
         <v>42458</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
@@ -3421,49 +3417,49 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F19" s="19">
         <v>42457</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H19" s="19">
         <v>42457</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N19" s="21">
         <v>42458</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
       <c r="R19" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S19" s="4"/>
     </row>
@@ -3472,48 +3468,50 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F20" s="19">
         <v>42457</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H20" s="19">
         <v>42457</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N20" s="21">
         <v>42458</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
+      <c r="R20" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="S20" s="4"/>
     </row>
     <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
@@ -3521,35 +3519,35 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="F21" s="19">
         <v>42457</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H21" s="19">
         <v>42457</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M21" s="20" t="s">
         <v>38</v>
@@ -3558,11 +3556,13 @@
         <v>42458</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
+      <c r="R21" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
@@ -3570,48 +3570,50 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F22" s="19">
         <v>42457</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H22" s="19">
         <v>42457</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N22" s="21">
         <v>42458</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
+      <c r="R22" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
@@ -3619,44 +3621,44 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F23" s="19">
         <v>42457</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H23" s="19">
         <v>42457</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N23" s="21">
         <v>42458</v>
       </c>
       <c r="O23" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
@@ -3668,48 +3670,50 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F24" s="19">
         <v>42457</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H24" s="19">
         <v>42465</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N24" s="21">
         <v>42458</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
+      <c r="R24" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="S24" s="4"/>
     </row>
     <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
@@ -3717,48 +3721,50 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F25" s="19">
         <v>42457</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H25" s="19">
         <v>42465</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K25" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="L25" s="17" t="s">
-        <v>191</v>
-      </c>
       <c r="M25" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N25" s="21">
         <v>42458</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
+      <c r="R25" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="S25" s="4"/>
     </row>
     <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
@@ -3766,48 +3772,50 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>248</v>
-      </c>
       <c r="E26" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F26" s="19">
         <v>42457</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H26" s="19">
         <v>42465</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N26" s="21">
         <v>42458</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
+      <c r="R26" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="S26" s="4"/>
     </row>
     <row r="27" spans="1:20" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
@@ -3846,7 +3854,7 @@
         <v>56</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N27" s="21">
         <v>42467</v>
@@ -3856,7 +3864,9 @@
       </c>
       <c r="P27" s="24"/>
       <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
+      <c r="R27" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="S27" s="25"/>
       <c r="T27" s="26"/>
     </row>
@@ -3887,13 +3897,13 @@
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>48</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M28" s="20" t="s">
         <v>53</v>
@@ -3902,11 +3912,13 @@
         <v>42467</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
+      <c r="R28" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="S28" s="25"/>
       <c r="T28" s="26"/>
     </row>
@@ -3915,13 +3927,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>254</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>255</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>47</v>
@@ -3937,7 +3949,7 @@
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>48</v>
@@ -3956,7 +3968,9 @@
       </c>
       <c r="P29" s="24"/>
       <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
+      <c r="R29" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="S29" s="25"/>
       <c r="T29" s="26"/>
     </row>
@@ -3965,13 +3979,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>258</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>47</v>
@@ -3987,7 +4001,7 @@
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>48</v>
@@ -4006,7 +4020,9 @@
       </c>
       <c r="P30" s="24"/>
       <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
+      <c r="R30" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="S30" s="25"/>
       <c r="T30" s="26"/>
     </row>
@@ -4015,13 +4031,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="D31" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>47</v>
@@ -4046,17 +4062,19 @@
         <v>54</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N31" s="21">
         <v>42467</v>
       </c>
       <c r="O31" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P31" s="24"/>
       <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
+      <c r="R31" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="S31" s="25"/>
       <c r="T31" s="26"/>
     </row>
@@ -4065,13 +4083,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>265</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>47</v>
@@ -4087,26 +4105,28 @@
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>48</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N32" s="21">
         <v>42467</v>
       </c>
       <c r="O32" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P32" s="24"/>
       <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
+      <c r="R32" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="S32" s="25"/>
       <c r="T32" s="26"/>
     </row>
@@ -4115,13 +4135,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>47</v>
@@ -4137,26 +4157,28 @@
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>48</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N33" s="21">
         <v>42467</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P33" s="24"/>
       <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
+      <c r="R33" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="S33" s="25"/>
       <c r="T33" s="26"/>
     </row>
@@ -4165,10 +4187,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>55</v>
@@ -4187,22 +4209,24 @@
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="K34" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>273</v>
       </c>
       <c r="L34" s="8"/>
       <c r="M34" s="20"/>
       <c r="N34" s="21"/>
       <c r="O34" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P34" s="24"/>
       <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
+      <c r="R34" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="S34" s="25" t="s">
-        <v>274</v>
+        <v>347</v>
       </c>
       <c r="T34" s="26"/>
     </row>
@@ -4214,10 +4238,10 @@
         <v>66</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>47</v>
@@ -4233,26 +4257,28 @@
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K35" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="M35" s="20" t="s">
         <v>273</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="M35" s="20" t="s">
-        <v>275</v>
       </c>
       <c r="N35" s="21">
         <v>42467</v>
       </c>
       <c r="O35" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P35" s="24"/>
       <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
+      <c r="R35" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="S35" s="25"/>
       <c r="T35" s="26"/>
     </row>
@@ -4264,10 +4290,10 @@
         <v>67</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>47</v>
@@ -4283,26 +4309,28 @@
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K36" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="M36" s="20" t="s">
         <v>273</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="M36" s="20" t="s">
-        <v>275</v>
       </c>
       <c r="N36" s="21">
         <v>42467</v>
       </c>
       <c r="O36" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P36" s="24"/>
       <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
+      <c r="R36" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="S36" s="25"/>
       <c r="T36" s="26"/>
     </row>
@@ -4311,7 +4339,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>60</v>
@@ -4333,16 +4361,16 @@
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>59</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N37" s="21">
         <v>42467</v>
@@ -4352,7 +4380,9 @@
       </c>
       <c r="P37" s="24"/>
       <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
+      <c r="R37" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="S37" s="25"/>
       <c r="T37" s="26"/>
     </row>
@@ -4361,13 +4391,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>47</v>
@@ -4383,13 +4413,13 @@
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M38" s="20" t="s">
         <v>53</v>
@@ -4398,11 +4428,13 @@
         <v>42467</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P38" s="24"/>
       <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
+      <c r="R38" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="S38" s="25"/>
       <c r="T38" s="26"/>
     </row>
@@ -4411,13 +4443,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>47</v>
@@ -4433,26 +4465,28 @@
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>48</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N39" s="21">
         <v>42467</v>
       </c>
       <c r="O39" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P39" s="24"/>
       <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
+      <c r="R39" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="S39" s="25"/>
       <c r="T39" s="26"/>
     </row>
@@ -4461,13 +4495,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>47</v>
@@ -4483,26 +4517,28 @@
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>48</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N40" s="21">
         <v>42467</v>
       </c>
       <c r="O40" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P40" s="17"/>
       <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
+      <c r="R40" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="S40" s="25"/>
       <c r="T40" s="26"/>
     </row>
@@ -4511,13 +4547,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>47</v>
@@ -4533,26 +4569,28 @@
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>48</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N41" s="21">
         <v>42467</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
+      <c r="R41" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="S41" s="25"/>
       <c r="T41" s="26"/>
     </row>
@@ -4561,13 +4599,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>47</v>
@@ -4583,26 +4621,28 @@
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>48</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N42" s="21">
         <v>42467</v>
       </c>
       <c r="O42" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P42" s="17"/>
       <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
+      <c r="R42" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="S42" s="25"/>
       <c r="T42" s="26"/>
     </row>
@@ -4611,10 +4651,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>68</v>
@@ -4642,13 +4682,13 @@
         <v>71</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N43" s="21">
         <v>42460</v>
       </c>
       <c r="O43" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P43" s="30"/>
       <c r="Q43" s="30"/>
@@ -4663,13 +4703,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>30</v>
@@ -4691,7 +4731,7 @@
         <v>70</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M44" s="20" t="s">
         <v>38</v>
@@ -4718,13 +4758,13 @@
         <v>76</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F45" s="21">
         <v>42459</v>
@@ -4740,13 +4780,13 @@
         <v>74</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N45" s="21">
         <v>42460</v>
@@ -4757,7 +4797,7 @@
       <c r="P45" s="17"/>
       <c r="Q45" s="17"/>
       <c r="R45" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S45" s="25"/>
       <c r="T45" s="26"/>
@@ -4767,16 +4807,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F46" s="21">
         <v>42459</v>
@@ -4789,13 +4829,13 @@
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K46" s="8" t="s">
         <v>70</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M46" s="20" t="s">
         <v>38</v>
@@ -4804,12 +4844,12 @@
         <v>42460</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P46" s="18"/>
       <c r="Q46" s="18"/>
       <c r="R46" s="32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S46" s="25"/>
       <c r="T46" s="26"/>
@@ -4819,7 +4859,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>27</v>
@@ -4828,7 +4868,7 @@
         <v>73</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F47" s="21">
         <v>42459</v>
@@ -4844,24 +4884,24 @@
         <v>78</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N47" s="21">
         <v>42460</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P47" s="17"/>
       <c r="Q47" s="17"/>
       <c r="R47" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="S47" s="25"/>
       <c r="T47" s="26"/>
@@ -4871,16 +4911,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F48" s="21">
         <v>42459</v>
@@ -4893,25 +4933,25 @@
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="20" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K48" s="8"/>
       <c r="L48" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M48" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N48" s="21">
         <v>42460</v>
       </c>
       <c r="O48" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P48" s="17"/>
       <c r="Q48" s="17"/>
       <c r="R48" s="32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="S48" s="25"/>
       <c r="T48" s="26"/>
@@ -4921,16 +4961,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>79</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F49" s="21">
         <v>42459</v>
@@ -4946,24 +4986,24 @@
         <v>77</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L49" s="8" t="s">
         <v>80</v>
       </c>
       <c r="M49" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N49" s="21">
         <v>42460</v>
       </c>
       <c r="O49" s="20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P49" s="17"/>
       <c r="Q49" s="17"/>
       <c r="R49" s="32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="S49" s="25"/>
       <c r="T49" s="26"/>
@@ -4973,16 +5013,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F50" s="21">
         <v>42459</v>
@@ -4998,13 +5038,13 @@
         <v>81</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M50" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N50" s="21">
         <v>42460</v>
@@ -5015,7 +5055,7 @@
       <c r="P50" s="17"/>
       <c r="Q50" s="17"/>
       <c r="R50" s="32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S50" s="25"/>
       <c r="T50" s="26"/>
@@ -5025,13 +5065,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>30</v>
@@ -5050,13 +5090,13 @@
         <v>77</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L51" s="8" t="s">
         <v>80</v>
       </c>
       <c r="M51" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N51" s="21">
         <v>42460</v>
@@ -5067,7 +5107,7 @@
       <c r="P51" s="17"/>
       <c r="Q51" s="17"/>
       <c r="R51" s="32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S51" s="25"/>
       <c r="T51" s="26"/>
@@ -5077,16 +5117,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F52" s="21">
         <v>42459</v>
@@ -5105,21 +5145,21 @@
         <v>70</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N52" s="21">
         <v>42460</v>
       </c>
       <c r="O52" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P52" s="17"/>
       <c r="Q52" s="17"/>
       <c r="R52" s="32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S52" s="25"/>
       <c r="T52" s="26"/>
@@ -5129,16 +5169,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F53" s="21">
         <v>42459</v>
@@ -5151,27 +5191,27 @@
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L53" s="8" t="s">
         <v>80</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N53" s="21">
         <v>42460</v>
       </c>
       <c r="O53" s="20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P53" s="17"/>
       <c r="Q53" s="17"/>
       <c r="R53" s="32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S53" s="25"/>
       <c r="T53" s="26"/>
@@ -5181,16 +5221,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F54" s="21">
         <v>42459</v>
@@ -5203,16 +5243,16 @@
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N54" s="21">
         <v>42460</v>
@@ -5223,7 +5263,7 @@
       <c r="P54" s="20"/>
       <c r="Q54" s="17"/>
       <c r="R54" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="S54" s="25"/>
       <c r="T54" s="26"/>
@@ -5233,16 +5273,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F55" s="21">
         <v>42459</v>
@@ -5255,13 +5295,13 @@
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M55" s="20" t="s">
         <v>38</v>
@@ -5275,7 +5315,7 @@
       <c r="P55" s="17"/>
       <c r="Q55" s="17"/>
       <c r="R55" s="34" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="S55" s="25"/>
       <c r="T55" s="26"/>
@@ -5285,16 +5325,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F56" s="21">
         <v>42459</v>
@@ -5307,16 +5347,16 @@
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L56" s="8" t="s">
         <v>80</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N56" s="21">
         <v>42460</v>
@@ -5327,7 +5367,7 @@
       <c r="P56" s="17"/>
       <c r="Q56" s="17"/>
       <c r="R56" s="34" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="S56" s="25"/>
       <c r="T56" s="26"/>
@@ -5337,16 +5377,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F57" s="21">
         <v>42459</v>
@@ -5359,7 +5399,7 @@
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>70</v>
@@ -5368,18 +5408,18 @@
         <v>80</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N57" s="21">
         <v>42460</v>
       </c>
       <c r="O57" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P57" s="17"/>
       <c r="Q57" s="17"/>
       <c r="R57" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S57" s="25"/>
       <c r="T57" s="26"/>
@@ -5389,13 +5429,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>30</v>
@@ -5411,13 +5451,13 @@
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M58" s="20" t="s">
         <v>38</v>
@@ -5426,7 +5466,7 @@
         <v>42460</v>
       </c>
       <c r="O58" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P58" s="17"/>
       <c r="Q58" s="17"/>
@@ -5477,12 +5517,14 @@
       <c r="N59" s="37">
         <v>42466</v>
       </c>
-      <c r="O59" s="38" t="s">
-        <v>89</v>
+      <c r="O59" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="P59" s="39"/>
       <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
+      <c r="R59" s="34" t="s">
+        <v>39</v>
+      </c>
       <c r="S59" s="40"/>
       <c r="T59" s="41"/>
     </row>
@@ -5491,13 +5533,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" s="36" t="s">
         <v>83</v>
       </c>
       <c r="D60" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E60" s="36" t="s">
         <v>47</v>
@@ -5513,13 +5555,13 @@
       </c>
       <c r="I60" s="36"/>
       <c r="J60" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K60" s="36" t="s">
         <v>86</v>
       </c>
       <c r="L60" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M60" s="38" t="s">
         <v>88</v>
@@ -5527,12 +5569,14 @@
       <c r="N60" s="37">
         <v>42466</v>
       </c>
-      <c r="O60" s="38" t="s">
-        <v>89</v>
+      <c r="O60" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="P60" s="39"/>
       <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
+      <c r="R60" s="34" t="s">
+        <v>39</v>
+      </c>
       <c r="S60" s="40"/>
       <c r="T60" s="41"/>
     </row>
@@ -5541,7 +5585,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C61" s="36" t="s">
         <v>83</v>
@@ -5563,7 +5607,7 @@
       </c>
       <c r="I61" s="36"/>
       <c r="J61" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K61" s="36" t="s">
         <v>86</v>
@@ -5577,12 +5621,14 @@
       <c r="N61" s="37">
         <v>42466</v>
       </c>
-      <c r="O61" s="38" t="s">
-        <v>89</v>
+      <c r="O61" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="P61" s="39"/>
       <c r="Q61" s="39"/>
-      <c r="R61" s="39"/>
+      <c r="R61" s="34" t="s">
+        <v>39</v>
+      </c>
       <c r="S61" s="40"/>
       <c r="T61" s="41"/>
     </row>
@@ -5591,13 +5637,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C62" s="36" t="s">
         <v>83</v>
       </c>
       <c r="D62" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E62" s="36" t="s">
         <v>47</v>
@@ -5613,13 +5659,13 @@
       </c>
       <c r="I62" s="36"/>
       <c r="J62" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K62" s="36" t="s">
         <v>86</v>
       </c>
       <c r="L62" s="36" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M62" s="38" t="s">
         <v>88</v>
@@ -5628,11 +5674,13 @@
         <v>42467</v>
       </c>
       <c r="O62" s="38" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P62" s="39"/>
       <c r="Q62" s="39"/>
-      <c r="R62" s="39"/>
+      <c r="R62" s="34" t="s">
+        <v>39</v>
+      </c>
       <c r="S62" s="40"/>
       <c r="T62" s="41"/>
     </row>
@@ -5641,48 +5689,50 @@
         <v>62</v>
       </c>
       <c r="B63" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>338</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>340</v>
       </c>
       <c r="F63" s="21">
         <v>42454</v>
       </c>
       <c r="G63" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H63" s="21">
         <v>42454</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="L63" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="M63" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="K63" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="L63" s="20" t="s">
+      <c r="N63" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="M63" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="N63" s="21" t="s">
-        <v>101</v>
       </c>
       <c r="O63" s="20" t="s">
         <v>72</v>
       </c>
       <c r="P63" s="24"/>
       <c r="Q63" s="24"/>
-      <c r="R63" s="43"/>
+      <c r="R63" s="34" t="s">
+        <v>39</v>
+      </c>
       <c r="S63" s="25"/>
       <c r="T63" s="26"/>
     </row>
@@ -5691,16 +5741,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F64" s="21">
         <v>42454</v>
@@ -5713,26 +5763,28 @@
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L64" s="20" t="s">
         <v>75</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N64" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O64" s="20" t="s">
         <v>72</v>
       </c>
       <c r="P64" s="24"/>
       <c r="Q64" s="24"/>
-      <c r="R64" s="43"/>
+      <c r="R64" s="34" t="s">
+        <v>39</v>
+      </c>
       <c r="S64" s="25"/>
       <c r="T64" s="26"/>
     </row>
@@ -6698,461 +6750,461 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.25" style="44" customWidth="1"/>
-    <col min="5" max="5" width="38" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="44" customWidth="1"/>
-    <col min="9" max="9" width="53.625" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="44"/>
+    <col min="1" max="1" width="10.25" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.25" style="43" customWidth="1"/>
+    <col min="5" max="5" width="38" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="43" customWidth="1"/>
+    <col min="9" max="9" width="53.625" style="44" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="A1" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="D2" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="E2" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="F2" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="G2" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="H2" s="53" t="s">
         <v>174</v>
       </c>
+      <c r="I2" s="52" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="54">
+      <c r="A3" s="53">
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="C3" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="53"/>
+      <c r="D3" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="61">
+      <c r="A4" s="60">
         <v>2</v>
       </c>
-      <c r="B4" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="51" t="s">
+      <c r="D4" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="51"/>
+      <c r="F4" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="50"/>
+      <c r="I4" s="49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="50"/>
+      <c r="I5" s="49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="50"/>
+      <c r="I6" s="49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G8" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="50" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="50" t="s">
+      <c r="G10" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="50"/>
+      <c r="I10" s="49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="59">
+        <v>3</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="50" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="57" t="s">
+      <c r="G11" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="46"/>
+      <c r="I11" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="59"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="46"/>
+      <c r="I12" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A13" s="59"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="50" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="50" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="50" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="50" t="s">
+      <c r="D13" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="46"/>
+      <c r="I13" s="45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="59"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="46"/>
+      <c r="I14" s="45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="59"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="47"/>
+      <c r="I15" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="59"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="48" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="50" t="s">
+      <c r="H16" s="47"/>
+      <c r="I16" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="50" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="60">
-        <v>3</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="47" t="s">
+    </row>
+    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A17" s="59"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="47"/>
+      <c r="I17" s="45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="59"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="60"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="47" t="s">
+      <c r="G18" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="46"/>
+      <c r="I18" s="45"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="59"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="47"/>
+      <c r="F19" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A13" s="60"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="46" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="60"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="47" t="s">
+      <c r="G19" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="46"/>
+      <c r="I19" s="45"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="59"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="46" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="60"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="60"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="46" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A17" s="60"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="46" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="60"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="46"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="60"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="46"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="60"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="48" t="s">
+      <c r="G20" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="46"/>
+      <c r="I20" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="59"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="E21" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="F21" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="47"/>
-      <c r="I20" s="46" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="60"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="46" t="s">
+      <c r="G21" s="46" t="s">
         <v>103</v>
+      </c>
+      <c r="H21" s="46"/>
+      <c r="I21" s="45" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
